--- a/datasets/data_labeling/Crawl-nha_hang_tripadvisor.xlsx
+++ b/datasets/data_labeling/Crawl-nha_hang_tripadvisor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Hackathon\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Hackathon\datasets\data_labeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC13B9C4-08BA-44F0-BC1B-5A0A96B6B6C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3C2579-6B69-43B5-A801-43235D6764A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5745" xr2:uid="{D96E981F-5119-4A7B-8B62-EAA0616E1B03}"/>
   </bookViews>
@@ -1348,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB59D79-8065-43D7-ACAD-CC4A54EAD0D8}">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G20" sqref="A2:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
